--- a/trunk/monografia v3/roc1final.xlsx
+++ b/trunk/monografia v3/roc1final.xlsx
@@ -267,7 +267,199 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54056889763779525"/>
+          <c:y val="0.51832640711577715"/>
+          <c:w val="0.15406435314318925"/>
+          <c:h val="8.3717191601049873E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$I$20:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4674005080442871E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4674005080442871E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4674005080442871E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6934801016088574E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6934801016088574E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6934801016088574E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$20:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99069373942470385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99238578680203049</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99407783417935702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99492385786802029</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99492385786802029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99492385786802029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99492385786802029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99576988155668356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99576988155668356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99576988155668356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.995787700084246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="68198400"/>
+        <c:axId val="68200320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="68198400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68200320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68200320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68198400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82327845179127235"/>
+          <c:y val="0.26832640711577721"/>
+          <c:w val="0.15505692319831366"/>
+          <c:h val="8.3717191601049873E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -286,16 +478,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>380159</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -309,6 +501,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276007</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -606,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/monografia v3/roc1final.xlsx
+++ b/trunk/monografia v3/roc1final.xlsx
@@ -227,11 +227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90332160"/>
-        <c:axId val="90358528"/>
+        <c:axId val="171581440"/>
+        <c:axId val="171582976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90332160"/>
+        <c:axId val="171581440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90358528"/>
+        <c:crossAx val="171582976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -249,7 +249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90358528"/>
+        <c:axId val="171582976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,7 +260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90332160"/>
+        <c:crossAx val="171581440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -410,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="68198400"/>
-        <c:axId val="68200320"/>
+        <c:axId val="171615360"/>
+        <c:axId val="171616896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68198400"/>
+        <c:axId val="171615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68200320"/>
+        <c:crossAx val="171616896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68200320"/>
+        <c:axId val="171616896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,25 +443,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68198400"/>
+        <c:crossAx val="171615360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82327845179127235"/>
-          <c:y val="0.26832640711577721"/>
-          <c:w val="0.15505692319831366"/>
-          <c:h val="8.3717191601049873E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -509,15 +495,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:colOff>538371</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>276007</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>84482</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -830,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/monografia v3/roc1final.xlsx
+++ b/trunk/monografia v3/roc1final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>1-Especificidade</t>
   </si>
@@ -25,6 +25,12 @@
   </si>
   <si>
     <t>Especificidade</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -227,11 +233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171581440"/>
-        <c:axId val="171582976"/>
+        <c:axId val="103437056"/>
+        <c:axId val="103438592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171581440"/>
+        <c:axId val="103437056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -241,7 +247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171582976"/>
+        <c:crossAx val="103438592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -249,7 +255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171582976"/>
+        <c:axId val="103438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,7 +266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171581440"/>
+        <c:crossAx val="103437056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -316,10 +322,10 @@
           <c:order val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Plan1!$I$20:$I$30</c:f>
+              <c:f>Plan1!$I$20:$I$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -349,19 +355,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6934801016088574E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan1!$J$20:$J$30</c:f>
+              <c:f>Plan1!$J$20:$J$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.99069373942470385</c:v>
                 </c:pt>
@@ -391,9 +394,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.99576988155668356</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.995787700084246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,11 +410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="171615360"/>
-        <c:axId val="171616896"/>
+        <c:axId val="103470976"/>
+        <c:axId val="103472512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="171615360"/>
+        <c:axId val="103470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171616896"/>
+        <c:crossAx val="103472512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171616896"/>
+        <c:axId val="103472512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171615360"/>
+        <c:crossAx val="103470976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -495,15 +495,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>538371</xdr:colOff>
+      <xdr:colOff>538370</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>149086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,14 @@
       </c>
       <c r="E12" s="3">
         <v>0.99069373942470385</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
